--- a/osccruise_davisstrait.xlsx
+++ b/osccruise_davisstrait.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogradye\Documents\Davis_Strait\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogradye\Documents\Davis_Strait\R_Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C95F9-A2AB-46B4-8C4B-CA5B2EE1CF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1BB57-B96A-47CD-A72D-24300DB3C7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17714922-9B32-4F73-8372-904B090D52D4}"/>
+    <workbookView xWindow="-6960" yWindow="4845" windowWidth="21600" windowHeight="11280" xr2:uid="{17714922-9B32-4F73-8372-904B090D52D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>mission_descriptor</t>
   </si>
@@ -120,6 +120,21 @@
   </si>
   <si>
     <t>33HQ20210901</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>GO-SHIP</t>
+  </si>
+  <si>
+    <t>responsible_group</t>
+  </si>
+  <si>
+    <t>Davis Strait Observing System</t>
+  </si>
+  <si>
+    <t>RAPID</t>
   </si>
 </sst>
 </file>
@@ -481,21 +496,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53342A-29F6-493D-AF74-8F3452307B62}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +544,14 @@
       <c r="K1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -564,8 +585,14 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -599,8 +626,11 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -633,6 +663,12 @@
       </c>
       <c r="K4" t="s">
         <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
